--- a/data/Microcystin/Microcystin_ELISA_Samples.xlsx
+++ b/data/Microcystin/Microcystin_ELISA_Samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/mlfearon_umich_edu/Documents/PROJECTS/MHMP Daphnia Duffy/Resource Quality/Data and Code/resource-quality-expt/data/Microcystin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{94E7BC1A-8A5F-4459-852C-69877509DD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{571B52F3-7CA9-4C15-AFD9-441AD11CA983}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{94E7BC1A-8A5F-4459-852C-69877509DD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79A18F38-6410-49E8-91F7-A3F3D0A4E0EF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" firstSheet="2" activeTab="4" xr2:uid="{A0F3F3E5-BB19-47F1-BA6B-408775489D98}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="22720" windowHeight="14600" activeTab="3" xr2:uid="{A0F3F3E5-BB19-47F1-BA6B-408775489D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Water Sample Size" sheetId="1" r:id="rId1"/>
@@ -465,6 +465,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -765,24 +769,24 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>23</v>
       </c>
@@ -811,7 +815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -855,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -899,7 +903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -943,7 +947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -987,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1383,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1951,7 +1955,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1995,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2031,7 +2035,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2071,7 +2075,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2111,7 +2115,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2151,7 +2155,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2191,7 +2195,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2231,7 +2235,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +2275,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2311,7 +2315,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2351,7 +2355,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2391,7 +2395,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2431,7 +2435,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2471,7 +2475,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2511,7 +2515,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -2551,7 +2555,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2591,7 +2595,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2631,7 +2635,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2671,7 +2675,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2711,7 +2715,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2751,7 +2755,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2791,7 +2795,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2831,7 +2835,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -2871,7 +2875,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O52">
         <f>SUM(F3:N50)</f>
         <v>1823</v>
@@ -2891,20 +2895,20 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>23</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2996,7 +3000,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3019,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3067,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3086,7 +3090,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3105,7 +3109,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3124,7 +3128,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3165,7 +3169,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3184,7 +3188,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3203,7 +3207,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3226,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3245,7 +3249,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3264,7 +3268,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3283,7 +3287,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3302,7 +3306,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3321,7 +3325,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3340,7 +3344,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3359,7 +3363,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3378,7 +3382,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3397,7 +3401,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3416,7 +3420,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3435,7 +3439,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3454,7 +3458,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -3475,7 +3479,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3496,7 +3500,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3517,7 +3521,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3538,7 +3542,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3559,7 +3563,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3580,7 +3584,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3601,7 +3605,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3622,7 +3626,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -3643,7 +3647,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3664,7 +3668,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -3685,7 +3689,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -3706,7 +3710,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -3727,7 +3731,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -3748,7 +3752,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -3769,7 +3773,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -3790,7 +3794,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -3811,7 +3815,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -3832,7 +3836,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -3853,7 +3857,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -3874,7 +3878,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3895,7 +3899,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -3916,7 +3920,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -3937,7 +3941,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -3958,7 +3962,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N52" s="1" t="s">
         <v>36</v>
       </c>
@@ -3977,23 +3981,23 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>23</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4073,7 +4077,7 @@
       <c r="S2" s="22"/>
       <c r="T2" s="22"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4099,7 +4103,7 @@
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4125,7 +4129,7 @@
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4157,7 +4161,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4191,7 +4195,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4212,7 +4216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4257,7 +4261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4305,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4326,7 +4330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4398,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4443,7 +4447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4509,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4533,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4557,7 +4561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4597,7 +4601,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4616,7 +4620,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -4693,7 +4697,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -4716,7 +4720,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4739,7 +4743,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -4762,7 +4766,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -4785,7 +4789,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4808,7 +4812,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4831,7 +4835,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -4854,7 +4858,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -4877,7 +4881,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -4900,7 +4904,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -4923,7 +4927,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -4946,7 +4950,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -4969,7 +4973,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -4992,7 +4996,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -5015,7 +5019,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -5038,7 +5042,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -5061,7 +5065,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -5082,7 +5086,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -5103,7 +5107,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -5126,7 +5130,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -5149,7 +5153,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -5170,7 +5174,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -5194,13 +5198,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="Q51">
         <f>SUM(F27:L50)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="N52" s="1" t="s">
         <v>36</v>
       </c>
@@ -5222,26 +5226,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA2F925-A0E6-40E1-B6D8-B22988943312}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:L115"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -5279,7 +5283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -5355,7 +5359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5431,7 +5435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -5467,7 +5471,7 @@
       </c>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
@@ -5503,7 +5507,7 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -5539,12 +5543,12 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>29</v>
@@ -5553,7 +5557,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="17">
         <v>44516</v>
@@ -5565,22 +5569,22 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>2.67</v>
+        <v>2.9529999999999998</v>
       </c>
       <c r="J9">
-        <v>2.5209999999999999</v>
+        <v>2.7170000000000001</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>29</v>
@@ -5589,7 +5593,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" s="17">
         <v>44516</v>
@@ -5601,22 +5605,22 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>2.544</v>
+        <v>2.8660000000000001</v>
       </c>
       <c r="J10">
-        <v>2.4900000000000002</v>
+        <v>2.855</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>29</v>
@@ -5625,7 +5629,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" s="17">
         <v>44516</v>
@@ -5637,17 +5641,17 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>2.6850000000000001</v>
+        <v>2.8260000000000001</v>
       </c>
       <c r="J11">
-        <v>2.589</v>
+        <v>2.883</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -5655,13 +5659,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12" s="16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F12" s="17">
         <v>44516</v>
@@ -5673,17 +5677,17 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>2.9529999999999998</v>
+        <v>2.891</v>
       </c>
       <c r="J12">
-        <v>2.7170000000000001</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
@@ -5691,13 +5695,13 @@
         <v>27</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="17">
         <v>44516</v>
@@ -5709,17 +5713,17 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2.8660000000000001</v>
+        <v>2.6670000000000003</v>
       </c>
       <c r="J13">
-        <v>2.855</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
@@ -5727,13 +5731,13 @@
         <v>27</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E14" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="17">
         <v>44516</v>
@@ -5745,17 +5749,17 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2.8260000000000001</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="J14">
-        <v>2.883</v>
+        <v>2.673</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
@@ -5763,7 +5767,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>30</v>
@@ -5781,17 +5785,17 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2.891</v>
+        <v>2.8319999999999999</v>
       </c>
       <c r="J15">
-        <v>2.9950000000000001</v>
+        <v>2.7570000000000001</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
@@ -5799,13 +5803,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" s="17">
         <v>44516</v>
@@ -5817,17 +5821,17 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2.6670000000000003</v>
+        <v>2.798</v>
       </c>
       <c r="J16">
-        <v>2.8759999999999999</v>
+        <v>2.7429999999999999</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
@@ -5835,13 +5839,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="17">
         <v>44516</v>
@@ -5853,31 +5857,31 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2.4830000000000001</v>
+        <v>3.0289999999999999</v>
       </c>
       <c r="J17">
-        <v>2.673</v>
+        <v>2.992</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F18" s="17">
         <v>44516</v>
@@ -5889,34 +5893,34 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2.7269999999999999</v>
+        <v>2.9689999999999999</v>
       </c>
       <c r="J18">
-        <v>2.6579999999999999</v>
+        <v>2.819</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E19" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G19" s="18">
         <v>8</v>
@@ -5925,34 +5929,34 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>2.653</v>
+        <v>2.851</v>
       </c>
       <c r="J19">
-        <v>2.7709999999999999</v>
+        <v>2.9039999999999999</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E20" s="16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F20" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G20" s="18">
         <v>8</v>
@@ -5961,34 +5965,34 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2.6749999999999998</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="J20">
-        <v>2.738</v>
+        <v>2.68</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E21" s="16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F21" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G21" s="18">
         <v>8</v>
@@ -5997,19 +6001,19 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>2.8319999999999999</v>
+        <v>2.6840000000000002</v>
       </c>
       <c r="J21">
-        <v>2.7570000000000001</v>
+        <v>2.7560000000000002</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>27</v>
@@ -6018,13 +6022,13 @@
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E22" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G22" s="18">
         <v>8</v>
@@ -6033,19 +6037,19 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2.798</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="J22">
-        <v>2.7429999999999999</v>
+        <v>2.9470000000000001</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>27</v>
@@ -6054,13 +6058,13 @@
         <v>29</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G23" s="18">
         <v>8</v>
@@ -6069,34 +6073,34 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>3.0289999999999999</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="J23">
-        <v>2.992</v>
+        <v>2.8839999999999999</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G24" s="18">
         <v>8</v>
@@ -6105,19 +6109,19 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>2.6989999999999998</v>
+        <v>2.645</v>
       </c>
       <c r="J24">
-        <v>2.8029999999999999</v>
+        <v>2.661</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>27</v>
@@ -6126,13 +6130,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G25" s="18">
         <v>8</v>
@@ -6141,31 +6145,31 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2.9689999999999999</v>
+        <v>2.7730000000000001</v>
       </c>
       <c r="J25">
-        <v>2.819</v>
+        <v>2.7429999999999999</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E26" s="16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F26" s="17">
         <v>44572</v>
@@ -6177,31 +6181,31 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>2.7370000000000001</v>
+        <v>3.117</v>
       </c>
       <c r="J26">
-        <v>2.4910000000000001</v>
+        <v>2.9510000000000001</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="17">
         <v>44572</v>
@@ -6213,17 +6217,17 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2.6120000000000001</v>
+        <v>2.9220000000000002</v>
       </c>
       <c r="J27">
-        <v>2.5680000000000001</v>
+        <v>2.9290000000000003</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
@@ -6231,13 +6235,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E28" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="17">
         <v>44572</v>
@@ -6249,17 +6253,17 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2.851</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="J28">
-        <v>2.9039999999999999</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>32</v>
       </c>
@@ -6267,13 +6271,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E29" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="17">
         <v>44572</v>
@@ -6285,17 +6289,17 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>2.6680000000000001</v>
+        <v>3.14</v>
       </c>
       <c r="J29">
-        <v>2.68</v>
+        <v>3.0409999999999999</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>32</v>
       </c>
@@ -6303,13 +6307,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F30" s="17">
         <v>44572</v>
@@ -6318,25 +6322,25 @@
         <v>8</v>
       </c>
       <c r="H30" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>2.6840000000000002</v>
+        <v>2.4079999999999999</v>
       </c>
       <c r="J30">
-        <v>2.7560000000000002</v>
+        <v>2.4249999999999998</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>29</v>
@@ -6345,425 +6349,433 @@
         <v>25</v>
       </c>
       <c r="E31" s="16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F31" s="17">
-        <v>44572</v>
+        <v>44513</v>
       </c>
       <c r="G31" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H31" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" s="15">
-        <v>2.6680000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J31" s="15">
-        <v>2.3879999999999999</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.1280000000000001</v>
+      </c>
+      <c r="K31" s="15">
+        <v>60</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E32" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" s="17">
-        <v>44572</v>
+        <v>44513</v>
       </c>
       <c r="G32" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H32" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>2.7869999999999999</v>
+        <v>1.625</v>
       </c>
       <c r="J32">
-        <v>2.706</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>53</v>
+        <v>1.764</v>
+      </c>
+      <c r="K32" s="15">
+        <v>60</v>
       </c>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="17">
-        <v>44572</v>
+        <v>44513</v>
       </c>
       <c r="G33" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H33" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2.9449999999999998</v>
+        <v>1.093</v>
       </c>
       <c r="J33">
-        <v>2.9470000000000001</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L33" s="15"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.117</v>
+      </c>
+      <c r="K33" s="15">
+        <v>60</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E34" s="16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F34" s="17">
-        <v>44572</v>
+        <v>44513</v>
       </c>
       <c r="G34" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H34" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>3.1280000000000001</v>
+        <v>1.093</v>
       </c>
       <c r="J34">
-        <v>2.8839999999999999</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L34" s="15"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.117</v>
+      </c>
+      <c r="K34" s="15">
+        <v>60</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="17">
-        <v>44572</v>
+        <v>44513</v>
       </c>
       <c r="G35" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H35" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>2.5540000000000003</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="J35">
-        <v>2.673</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="15"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="K35" s="15">
+        <v>60</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F36" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G36" s="18">
         <v>8</v>
       </c>
       <c r="H36" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>2.645</v>
+        <v>1.4390000000000001</v>
       </c>
       <c r="J36">
-        <v>2.661</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>53</v>
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="K36" s="15">
+        <v>12</v>
       </c>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16">
+        <v>8</v>
+      </c>
+      <c r="F37" s="17">
+        <v>44516</v>
+      </c>
+      <c r="G37" s="18">
+        <v>8</v>
+      </c>
+      <c r="H37" s="16">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>1.048</v>
+      </c>
+      <c r="J37">
+        <v>1.151</v>
+      </c>
+      <c r="K37" s="15">
+        <v>12</v>
+      </c>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="16">
+        <v>4</v>
+      </c>
+      <c r="F38" s="17">
+        <v>44516</v>
+      </c>
+      <c r="G38" s="18">
+        <v>8</v>
+      </c>
+      <c r="H38" s="16">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="J38">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="K38" s="15">
+        <v>12</v>
+      </c>
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="16">
+        <v>9</v>
+      </c>
+      <c r="F39" s="17">
+        <v>44516</v>
+      </c>
+      <c r="G39" s="18">
+        <v>8</v>
+      </c>
+      <c r="H39" s="16">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>1.3</v>
+      </c>
+      <c r="J39">
+        <v>1.137</v>
+      </c>
+      <c r="K39" s="15">
+        <v>12</v>
+      </c>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="16">
+        <v>2</v>
+      </c>
+      <c r="F40" s="17">
+        <v>44516</v>
+      </c>
+      <c r="G40" s="18">
+        <v>8</v>
+      </c>
+      <c r="H40" s="16">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1.226</v>
+      </c>
+      <c r="J40">
+        <v>1.077</v>
+      </c>
+      <c r="K40" s="15">
+        <v>12</v>
+      </c>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="16">
         <v>7</v>
       </c>
-      <c r="F37" s="17">
-        <v>44572</v>
-      </c>
-      <c r="G37" s="18">
-        <v>8</v>
-      </c>
-      <c r="H37" s="16">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>2.7730000000000001</v>
-      </c>
-      <c r="J37">
-        <v>2.7429999999999999</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="15"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="16">
-        <v>9</v>
-      </c>
-      <c r="F38" s="17">
-        <v>44572</v>
-      </c>
-      <c r="G38" s="18">
-        <v>8</v>
-      </c>
-      <c r="H38" s="16">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>3.117</v>
-      </c>
-      <c r="J38">
-        <v>2.9510000000000001</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="15"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="16">
-        <v>4</v>
-      </c>
-      <c r="F39" s="17">
-        <v>44572</v>
-      </c>
-      <c r="G39" s="18">
-        <v>8</v>
-      </c>
-      <c r="H39" s="16">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>2.6850000000000001</v>
-      </c>
-      <c r="J39">
-        <v>2.5990000000000002</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L39" s="15"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="16">
-        <v>1</v>
-      </c>
-      <c r="F40" s="17">
-        <v>44572</v>
-      </c>
-      <c r="G40" s="18">
-        <v>8</v>
-      </c>
-      <c r="H40" s="16">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>2.9220000000000002</v>
-      </c>
-      <c r="J40">
-        <v>2.9290000000000003</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L40" s="15"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="16">
-        <v>3</v>
-      </c>
       <c r="F41" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G41" s="18">
         <v>8</v>
       </c>
       <c r="H41" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>2.9489999999999998</v>
+        <v>1.399</v>
       </c>
       <c r="J41">
-        <v>2.8359999999999999</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>53</v>
+        <v>1.393</v>
+      </c>
+      <c r="K41" s="15">
+        <v>12</v>
       </c>
       <c r="L41" s="15"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G42" s="18">
         <v>8</v>
       </c>
       <c r="H42" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>3.14</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="J42">
-        <v>3.0409999999999999</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>53</v>
+        <v>1.121</v>
+      </c>
+      <c r="K42" s="15">
+        <v>12</v>
       </c>
       <c r="L42" s="15"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>4</v>
       </c>
@@ -6774,34 +6786,32 @@
         <v>29</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F43" s="17">
-        <v>44513</v>
+        <v>44516</v>
       </c>
       <c r="G43" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H43" s="16">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>1.1399999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="J43">
-        <v>1.1280000000000001</v>
+        <v>1.274</v>
       </c>
       <c r="K43" s="15">
-        <v>60</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>4</v>
       </c>
@@ -6809,35 +6819,35 @@
         <v>28</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F44" s="17">
-        <v>44513</v>
+        <v>44516</v>
       </c>
       <c r="G44" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H44" s="16">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>1.625</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="J44">
-        <v>1.764</v>
+        <v>1.6060000000000001</v>
       </c>
       <c r="K44" s="15">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>4</v>
       </c>
@@ -6845,37 +6855,35 @@
         <v>28</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="17">
-        <v>44513</v>
+        <v>44516</v>
       </c>
       <c r="G45" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H45" s="16">
         <v>2</v>
       </c>
       <c r="I45">
-        <v>1.093</v>
+        <v>1.296</v>
       </c>
       <c r="J45">
-        <v>1.117</v>
+        <v>1.351</v>
       </c>
       <c r="K45" s="15">
-        <v>60</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>4</v>
       </c>
@@ -6889,31 +6897,29 @@
         <v>31</v>
       </c>
       <c r="E46" s="16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F46" s="17">
-        <v>44513</v>
+        <v>44516</v>
       </c>
       <c r="G46" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H46" s="16">
         <v>2</v>
       </c>
       <c r="I46">
-        <v>1.093</v>
+        <v>1.645</v>
       </c>
       <c r="J46">
-        <v>1.117</v>
+        <v>1.633</v>
       </c>
       <c r="K46" s="15">
-        <v>60</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>4</v>
       </c>
@@ -6930,33 +6936,31 @@
         <v>4</v>
       </c>
       <c r="F47" s="17">
-        <v>44513</v>
+        <v>44516</v>
       </c>
       <c r="G47" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H47" s="16">
         <v>2</v>
       </c>
       <c r="I47">
-        <v>0.83699999999999997</v>
+        <v>1.3340000000000001</v>
       </c>
       <c r="J47">
-        <v>0.79600000000000004</v>
+        <v>1.3760000000000001</v>
       </c>
       <c r="K47" s="15">
-        <v>60</v>
-      </c>
-      <c r="L47" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>24</v>
@@ -6965,10 +6969,10 @@
         <v>25</v>
       </c>
       <c r="E48" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G48" s="18">
         <v>8</v>
@@ -6977,22 +6981,22 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <v>2.415</v>
+        <v>1.216</v>
       </c>
       <c r="J48">
-        <v>2.6219999999999999</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>53</v>
+        <v>1.29</v>
+      </c>
+      <c r="K48" s="15">
+        <v>12</v>
       </c>
       <c r="L48" s="15"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>24</v>
@@ -7004,7 +7008,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G49" s="18">
         <v>8</v>
@@ -7013,22 +7017,22 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <v>2.4670000000000001</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="J49">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>53</v>
+        <v>1.155</v>
+      </c>
+      <c r="K49" s="15">
+        <v>12</v>
       </c>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>24</v>
@@ -7037,10 +7041,10 @@
         <v>25</v>
       </c>
       <c r="E50" s="16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G50" s="18">
         <v>8</v>
@@ -7049,34 +7053,34 @@
         <v>2</v>
       </c>
       <c r="I50">
-        <v>2.6120000000000001</v>
+        <v>1.401</v>
       </c>
       <c r="J50">
-        <v>2.6840000000000002</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>53</v>
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="K50" s="15">
+        <v>12</v>
       </c>
       <c r="L50" s="15"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F51" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G51" s="18">
         <v>8</v>
@@ -7085,34 +7089,34 @@
         <v>2</v>
       </c>
       <c r="I51">
-        <v>1.4390000000000001</v>
+        <v>1.4770000000000001</v>
       </c>
       <c r="J51">
-        <v>1.1180000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="K51" s="15">
         <v>12</v>
       </c>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F52" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G52" s="18">
         <v>8</v>
@@ -7121,22 +7125,22 @@
         <v>2</v>
       </c>
       <c r="I52">
-        <v>1.048</v>
+        <v>1.8840000000000001</v>
       </c>
       <c r="J52">
-        <v>1.151</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="K52" s="15">
         <v>12</v>
       </c>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>29</v>
@@ -7145,10 +7149,10 @@
         <v>25</v>
       </c>
       <c r="E53" s="16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F53" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G53" s="18">
         <v>8</v>
@@ -7157,34 +7161,34 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <v>1.4079999999999999</v>
+        <v>1.778</v>
       </c>
       <c r="J53">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>53</v>
+        <v>1.774</v>
+      </c>
+      <c r="K53" s="15">
+        <v>12</v>
       </c>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E54" s="16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F54" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G54" s="18">
         <v>8</v>
@@ -7193,34 +7197,34 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <v>2.6110000000000002</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="J54">
-        <v>2.4390000000000001</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>53</v>
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="K54" s="15">
+        <v>12</v>
       </c>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E55" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F55" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G55" s="18">
         <v>8</v>
@@ -7229,34 +7233,34 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <v>2.4660000000000002</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="J55">
-        <v>2.6139999999999999</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>53</v>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="K55" s="15">
+        <v>12</v>
       </c>
       <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E56" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F56" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G56" s="18">
         <v>8</v>
@@ -7265,19 +7269,19 @@
         <v>2</v>
       </c>
       <c r="I56">
-        <v>1.3680000000000001</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="J56">
-        <v>1.4079999999999999</v>
+        <v>1.446</v>
       </c>
       <c r="K56" s="15">
         <v>12</v>
       </c>
       <c r="L56" s="15"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>28</v>
@@ -7286,13 +7290,13 @@
         <v>29</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E57" s="16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F57" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G57" s="18">
         <v>8</v>
@@ -7301,34 +7305,34 @@
         <v>2</v>
       </c>
       <c r="I57">
-        <v>1.3</v>
+        <v>1.2770000000000001</v>
       </c>
       <c r="J57">
-        <v>1.137</v>
+        <v>1.446</v>
       </c>
       <c r="K57" s="15">
         <v>12</v>
       </c>
       <c r="L57" s="15"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E58" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G58" s="18">
         <v>8</v>
@@ -7337,34 +7341,34 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <v>2.5779999999999998</v>
+        <v>1.5110000000000001</v>
       </c>
       <c r="J58">
-        <v>2.6190000000000002</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>53</v>
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="K58" s="15">
+        <v>12</v>
       </c>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E59" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F59" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G59" s="18">
         <v>8</v>
@@ -7373,17 +7377,17 @@
         <v>2</v>
       </c>
       <c r="I59">
-        <v>2.573</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="J59">
-        <v>2.6139999999999999</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>53</v>
+        <v>1.62</v>
+      </c>
+      <c r="K59" s="15">
+        <v>12</v>
       </c>
       <c r="L59" s="15"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
         <v>4</v>
       </c>
@@ -7391,10 +7395,10 @@
         <v>28</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E60" s="16">
         <v>2</v>
@@ -7405,35 +7409,29 @@
       <c r="G60" s="18">
         <v>8</v>
       </c>
-      <c r="H60" s="16">
-        <v>2</v>
-      </c>
-      <c r="I60">
-        <v>1.226</v>
-      </c>
-      <c r="J60">
-        <v>1.077</v>
-      </c>
-      <c r="K60" s="15">
-        <v>12</v>
-      </c>
-      <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H60" s="16"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E61" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F61" s="17">
         <v>44516</v>
@@ -7445,17 +7443,17 @@
         <v>2</v>
       </c>
       <c r="I61">
-        <v>1.399</v>
+        <v>2.415</v>
       </c>
       <c r="J61">
-        <v>1.393</v>
-      </c>
-      <c r="K61" s="15">
-        <v>12</v>
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L61" s="15"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>4</v>
       </c>
@@ -7463,13 +7461,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E62" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F62" s="17">
         <v>44516</v>
@@ -7481,17 +7479,17 @@
         <v>2</v>
       </c>
       <c r="I62">
-        <v>2.605</v>
+        <v>2.4670000000000001</v>
       </c>
       <c r="J62">
-        <v>2.5</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="K62" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
         <v>4</v>
       </c>
@@ -7499,13 +7497,13 @@
         <v>5</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E63" s="16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F63" s="17">
         <v>44516</v>
@@ -7517,17 +7515,17 @@
         <v>2</v>
       </c>
       <c r="I63">
-        <v>2.3570000000000002</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="J63">
-        <v>2.29</v>
+        <v>2.6840000000000002</v>
       </c>
       <c r="K63" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L63" s="15"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>4</v>
       </c>
@@ -7538,10 +7536,10 @@
         <v>29</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E64" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F64" s="17">
         <v>44516</v>
@@ -7553,31 +7551,31 @@
         <v>2</v>
       </c>
       <c r="I64">
-        <v>0.747</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="J64">
-        <v>0.68800000000000006</v>
+        <v>2.3239999999999998</v>
       </c>
       <c r="K64" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L64" s="15"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E65" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F65" s="17">
         <v>44516</v>
@@ -7589,31 +7587,31 @@
         <v>2</v>
       </c>
       <c r="I65">
-        <v>1.3220000000000001</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="J65">
-        <v>1.121</v>
-      </c>
-      <c r="K65" s="15">
-        <v>12</v>
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L65" s="15"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E66" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F66" s="17">
         <v>44516</v>
@@ -7625,31 +7623,31 @@
         <v>2</v>
       </c>
       <c r="I66">
-        <v>1.29</v>
+        <v>2.4660000000000002</v>
       </c>
       <c r="J66">
-        <v>1.274</v>
-      </c>
-      <c r="K66" s="15">
-        <v>12</v>
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L66" s="15"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E67" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F67" s="17">
         <v>44516</v>
@@ -7661,31 +7659,31 @@
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1.4319999999999999</v>
+        <v>2.5779999999999998</v>
       </c>
       <c r="J67">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="K67" s="15">
-        <v>12</v>
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L67" s="15"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E68" s="16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F68" s="17">
         <v>44516</v>
@@ -7697,31 +7695,31 @@
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1.296</v>
+        <v>2.573</v>
       </c>
       <c r="J68">
-        <v>1.351</v>
-      </c>
-      <c r="K68" s="15">
-        <v>12</v>
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L68" s="15"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" s="16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F69" s="17">
         <v>44516</v>
@@ -7733,17 +7731,17 @@
         <v>2</v>
       </c>
       <c r="I69">
-        <v>1.645</v>
+        <v>2.605</v>
       </c>
       <c r="J69">
-        <v>1.633</v>
-      </c>
-      <c r="K69" s="15">
-        <v>12</v>
+        <v>2.5</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L69" s="15"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>4</v>
       </c>
@@ -7754,10 +7752,10 @@
         <v>29</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F70" s="17">
         <v>44516</v>
@@ -7769,31 +7767,31 @@
         <v>2</v>
       </c>
       <c r="I70">
-        <v>2.2840000000000003</v>
+        <v>2.3570000000000002</v>
       </c>
       <c r="J70">
-        <v>2.2749999999999999</v>
+        <v>2.29</v>
       </c>
       <c r="K70" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L70" s="15"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E71" s="16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F71" s="17">
         <v>44516</v>
@@ -7805,34 +7803,34 @@
         <v>2</v>
       </c>
       <c r="I71">
-        <v>1.3340000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="J71">
-        <v>1.3760000000000001</v>
-      </c>
-      <c r="K71" s="15">
-        <v>12</v>
+        <v>0.68800000000000006</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L71" s="15"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E72" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G72" s="18">
         <v>8</v>
@@ -7841,103 +7839,103 @@
         <v>2</v>
       </c>
       <c r="I72">
-        <v>1.216</v>
+        <v>2.2840000000000003</v>
       </c>
       <c r="J72">
-        <v>1.29</v>
-      </c>
-      <c r="K72" s="15">
-        <v>12</v>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L72" s="15"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E73" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G73" s="18">
         <v>8</v>
       </c>
       <c r="H73" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>1.3220000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="J73">
-        <v>1.155</v>
-      </c>
-      <c r="K73" s="15">
-        <v>12</v>
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L73" s="15"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E74" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F74" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G74" s="18">
         <v>8</v>
       </c>
       <c r="H74" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>1.401</v>
+        <v>2.5590000000000002</v>
       </c>
       <c r="J74">
-        <v>1.4410000000000001</v>
-      </c>
-      <c r="K74" s="15">
-        <v>12</v>
+        <v>2.319</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L74" s="15"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E75" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" s="17">
         <v>44572</v>
@@ -7946,34 +7944,34 @@
         <v>8</v>
       </c>
       <c r="H75" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1.4770000000000001</v>
+        <v>1.996</v>
       </c>
       <c r="J75">
-        <v>1.55</v>
-      </c>
-      <c r="K75" s="15">
-        <v>12</v>
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L75" s="15"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F76" s="17">
         <v>44572</v>
@@ -7982,34 +7980,34 @@
         <v>8</v>
       </c>
       <c r="H76" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>1.8840000000000001</v>
+        <v>2.319</v>
       </c>
       <c r="J76">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="K76" s="15">
-        <v>12</v>
+        <v>2.298</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L76" s="15"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E77" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77" s="17">
         <v>44572</v>
@@ -8018,34 +8016,34 @@
         <v>8</v>
       </c>
       <c r="H77" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>1.778</v>
+        <v>2.2680000000000002</v>
       </c>
       <c r="J77">
-        <v>1.774</v>
-      </c>
-      <c r="K77" s="15">
-        <v>12</v>
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L77" s="15"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E78" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F78" s="17">
         <v>44572</v>
@@ -8054,34 +8052,34 @@
         <v>8</v>
       </c>
       <c r="H78" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>1.2809999999999999</v>
+        <v>2.625</v>
       </c>
       <c r="J78">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="K78" s="15">
-        <v>12</v>
+        <v>2.677</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L78" s="15"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E79" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F79" s="17">
         <v>44572</v>
@@ -8090,31 +8088,31 @@
         <v>8</v>
       </c>
       <c r="H79" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>1.4710000000000001</v>
+        <v>2.403</v>
       </c>
       <c r="J79">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="K79" s="15">
-        <v>12</v>
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L79" s="15"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E80" s="16">
         <v>10</v>
@@ -8126,34 +8124,34 @@
         <v>8</v>
       </c>
       <c r="H80" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1.5740000000000001</v>
+        <v>2.2789999999999999</v>
       </c>
       <c r="J80">
-        <v>1.446</v>
-      </c>
-      <c r="K80" s="15">
-        <v>12</v>
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L80" s="15"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E81" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="17">
         <v>44572</v>
@@ -8162,34 +8160,34 @@
         <v>8</v>
       </c>
       <c r="H81" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1.2770000000000001</v>
+        <v>2.3770000000000002</v>
       </c>
       <c r="J81">
-        <v>1.446</v>
-      </c>
-      <c r="K81" s="20">
-        <v>12</v>
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="K81" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="L81" s="15"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E82" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F82" s="17">
         <v>44572</v>
@@ -8198,25 +8196,25 @@
         <v>8</v>
       </c>
       <c r="H82" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1.5110000000000001</v>
+        <v>2.4430000000000001</v>
       </c>
       <c r="J82">
-        <v>1.3160000000000001</v>
-      </c>
-      <c r="K82" s="15">
-        <v>12</v>
+        <v>2.492</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L82" s="15"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>29</v>
@@ -8225,7 +8223,7 @@
         <v>33</v>
       </c>
       <c r="E83" s="16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F83" s="17">
         <v>44572</v>
@@ -8234,37 +8232,37 @@
         <v>8</v>
       </c>
       <c r="H83" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1.5840000000000001</v>
+        <v>2.6070000000000002</v>
       </c>
       <c r="J83">
-        <v>1.62</v>
-      </c>
-      <c r="K83" s="15">
-        <v>12</v>
+        <v>1.875</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E84" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G84" s="18">
         <v>8</v>
@@ -8273,34 +8271,34 @@
         <v>3</v>
       </c>
       <c r="I84">
-        <v>2.738</v>
+        <v>2.1579999999999999</v>
       </c>
       <c r="J84">
-        <v>2.5990000000000002</v>
+        <v>2.1270000000000002</v>
       </c>
       <c r="K84" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E85" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F85" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G85" s="18">
         <v>8</v>
@@ -8309,34 +8307,34 @@
         <v>3</v>
       </c>
       <c r="I85">
-        <v>2.5979999999999999</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J85">
-        <v>2.7560000000000002</v>
+        <v>2.3090000000000002</v>
       </c>
       <c r="K85" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E86" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F86" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G86" s="18">
         <v>8</v>
@@ -8345,34 +8343,34 @@
         <v>3</v>
       </c>
       <c r="I86">
-        <v>2.8109999999999999</v>
+        <v>2.5340000000000003</v>
       </c>
       <c r="J86">
-        <v>2.8740000000000001</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="K86" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E87" s="16">
         <v>6</v>
       </c>
       <c r="F87" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G87" s="18">
         <v>8</v>
@@ -8381,34 +8379,34 @@
         <v>3</v>
       </c>
       <c r="I87">
-        <v>2.3730000000000002</v>
+        <v>2.077</v>
       </c>
       <c r="J87">
-        <v>2.0230000000000001</v>
+        <v>2.4820000000000002</v>
       </c>
       <c r="K87" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E88" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F88" s="17">
-        <v>44516</v>
+        <v>44572</v>
       </c>
       <c r="G88" s="18">
         <v>8</v>
@@ -8417,31 +8415,31 @@
         <v>3</v>
       </c>
       <c r="I88">
-        <v>2.5150000000000001</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="J88">
-        <v>2.4729999999999999</v>
+        <v>2.512</v>
       </c>
       <c r="K88" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E89" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89" s="17">
         <v>44516</v>
@@ -8450,34 +8448,34 @@
         <v>8</v>
       </c>
       <c r="H89" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
       <c r="J89">
-        <v>2.1070000000000002</v>
+        <v>2.5209999999999999</v>
       </c>
       <c r="K89" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E90" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F90" s="17">
         <v>44516</v>
@@ -8486,20 +8484,20 @@
         <v>8</v>
       </c>
       <c r="H90" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2.5590000000000002</v>
+        <v>2.544</v>
       </c>
       <c r="J90">
-        <v>2.319</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K90" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>4</v>
       </c>
@@ -8507,13 +8505,13 @@
         <v>26</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E91" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F91" s="17">
         <v>44516</v>
@@ -8522,130 +8520,130 @@
         <v>8</v>
       </c>
       <c r="H91" s="16">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="J91">
+        <v>2.589</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L91" s="15"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="16">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>2.5870000000000002</v>
-      </c>
-      <c r="J91">
-        <v>2.1869999999999998</v>
-      </c>
-      <c r="K91" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L91" s="15"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="16">
-        <v>5</v>
-      </c>
       <c r="F92" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G92" s="18">
         <v>8</v>
       </c>
       <c r="H92" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>1.996</v>
+        <v>2.7269999999999999</v>
       </c>
       <c r="J92">
-        <v>2.3959999999999999</v>
+        <v>2.6579999999999999</v>
       </c>
       <c r="K92" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L92" s="15"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E93" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F93" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G93" s="18">
         <v>8</v>
       </c>
       <c r="H93" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2.319</v>
+        <v>2.653</v>
       </c>
       <c r="J93">
-        <v>2.298</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="K93" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L93" s="15"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E94" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F94" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G94" s="18">
         <v>8</v>
       </c>
       <c r="H94" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2.2680000000000002</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="J94">
-        <v>2.2269999999999999</v>
+        <v>2.738</v>
       </c>
       <c r="K94" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L94" s="15"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>26</v>
@@ -8654,44 +8652,46 @@
         <v>24</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E95" s="16">
         <v>2</v>
       </c>
       <c r="F95" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G95" s="18">
         <v>8</v>
       </c>
       <c r="H95" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2.573</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="J95">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="K95" s="15"/>
+        <v>2.8029999999999999</v>
+      </c>
+      <c r="K95" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="L95" s="15"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E96" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F96" s="17">
         <v>44572</v>
@@ -8700,34 +8700,34 @@
         <v>8</v>
       </c>
       <c r="H96" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2.625</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="J96">
-        <v>2.677</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="K96" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L96" s="15"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E97" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F97" s="17">
         <v>44572</v>
@@ -8736,25 +8736,25 @@
         <v>8</v>
       </c>
       <c r="H97" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2.403</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="J97">
-        <v>2.6059999999999999</v>
+        <v>2.5680000000000001</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L97" s="15"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>29</v>
@@ -8763,7 +8763,7 @@
         <v>25</v>
       </c>
       <c r="E98" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F98" s="17">
         <v>44572</v>
@@ -8772,20 +8772,20 @@
         <v>8</v>
       </c>
       <c r="H98" s="16">
-        <v>3</v>
-      </c>
-      <c r="I98">
-        <v>2.2789999999999999</v>
-      </c>
-      <c r="J98">
-        <v>2.4340000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="I98" s="20">
+        <v>2.6680000000000001</v>
+      </c>
+      <c r="J98" s="20">
+        <v>2.3879999999999999</v>
       </c>
       <c r="K98" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L98" s="15"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="15" t="s">
         <v>32</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>25</v>
       </c>
       <c r="E99" s="16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F99" s="17">
         <v>44572</v>
@@ -8808,34 +8808,34 @@
         <v>8</v>
       </c>
       <c r="H99" s="16">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="J99">
+        <v>2.706</v>
+      </c>
+      <c r="K99" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L99" s="15"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="16">
         <v>3</v>
-      </c>
-      <c r="I99">
-        <v>2.4590000000000001</v>
-      </c>
-      <c r="J99">
-        <v>2.5990000000000002</v>
-      </c>
-      <c r="K99" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L99" s="15"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" s="16">
-        <v>4</v>
       </c>
       <c r="F100" s="17">
         <v>44572</v>
@@ -8844,34 +8844,34 @@
         <v>8</v>
       </c>
       <c r="H100" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2.4079999999999999</v>
+        <v>2.5540000000000003</v>
       </c>
       <c r="J100">
-        <v>2.4249999999999998</v>
+        <v>2.673</v>
       </c>
       <c r="K100" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L100" s="15"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>33</v>
       </c>
       <c r="E101" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" s="17">
         <v>44572</v>
@@ -8880,37 +8880,37 @@
         <v>8</v>
       </c>
       <c r="H101" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2.3770000000000002</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="J101">
-        <v>2.4460000000000002</v>
+        <v>2.5990000000000002</v>
       </c>
       <c r="K101" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L101" s="15"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E102" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F102" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G102" s="18">
         <v>8</v>
@@ -8919,19 +8919,19 @@
         <v>3</v>
       </c>
       <c r="I102">
-        <v>2.4430000000000001</v>
+        <v>2.738</v>
       </c>
       <c r="J102">
-        <v>2.492</v>
+        <v>2.5990000000000002</v>
       </c>
       <c r="K102" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L102" s="15"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>26</v>
@@ -8940,13 +8940,13 @@
         <v>24</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E103" s="16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F103" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G103" s="18">
         <v>8</v>
@@ -8955,19 +8955,19 @@
         <v>3</v>
       </c>
       <c r="I103">
-        <v>2.7650000000000001</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="J103">
-        <v>2.4710000000000001</v>
+        <v>2.7560000000000002</v>
       </c>
       <c r="K103" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L103" s="15"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>26</v>
@@ -8976,13 +8976,13 @@
         <v>24</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E104" s="16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F104" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G104" s="18">
         <v>8</v>
@@ -8991,34 +8991,34 @@
         <v>3</v>
       </c>
       <c r="I104">
-        <v>2.4470000000000001</v>
+        <v>2.8109999999999999</v>
       </c>
       <c r="J104">
-        <v>2.645</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="K104" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L104" s="15"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E105" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F105" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G105" s="18">
         <v>8</v>
@@ -9027,34 +9027,34 @@
         <v>3</v>
       </c>
       <c r="I105">
-        <v>2.6070000000000002</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="J105">
-        <v>1.875</v>
+        <v>2.0230000000000001</v>
       </c>
       <c r="K105" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L105" s="15"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E106" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F106" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G106" s="18">
         <v>8</v>
@@ -9063,34 +9063,34 @@
         <v>3</v>
       </c>
       <c r="I106">
-        <v>2.7560000000000002</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="J106">
-        <v>2.4500000000000002</v>
+        <v>2.4729999999999999</v>
       </c>
       <c r="K106" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L106" s="15"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E107" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F107" s="17">
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="G107" s="18">
         <v>8</v>
@@ -9099,31 +9099,31 @@
         <v>3</v>
       </c>
       <c r="I107">
-        <v>2.7229999999999999</v>
+        <v>2.5870000000000002</v>
       </c>
       <c r="J107">
-        <v>1.992</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="K107" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L107" s="15"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E108" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F108" s="17">
         <v>44572</v>
@@ -9135,31 +9135,29 @@
         <v>3</v>
       </c>
       <c r="I108">
-        <v>2.1579999999999999</v>
+        <v>2.573</v>
       </c>
       <c r="J108">
-        <v>2.1270000000000002</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>53</v>
-      </c>
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="K108" s="15"/>
       <c r="L108" s="15"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E109" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F109" s="17">
         <v>44572</v>
@@ -9171,17 +9169,17 @@
         <v>3</v>
       </c>
       <c r="I109">
-        <v>2.5499999999999998</v>
+        <v>2.4590000000000001</v>
       </c>
       <c r="J109">
-        <v>2.3090000000000002</v>
+        <v>2.5990000000000002</v>
       </c>
       <c r="K109" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L109" s="15"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="15" t="s">
         <v>32</v>
       </c>
@@ -9192,10 +9190,10 @@
         <v>24</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E110" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F110" s="17">
         <v>44572</v>
@@ -9207,31 +9205,31 @@
         <v>3</v>
       </c>
       <c r="I110">
-        <v>2.6590000000000003</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="J110">
-        <v>2.7530000000000001</v>
+        <v>2.4710000000000001</v>
       </c>
       <c r="K110" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L110" s="15"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E111" s="16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F111" s="17">
         <v>44572</v>
@@ -9243,31 +9241,31 @@
         <v>3</v>
       </c>
       <c r="I111">
-        <v>2.5340000000000003</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="J111">
-        <v>2.3180000000000001</v>
+        <v>2.645</v>
       </c>
       <c r="K111" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L111" s="15"/>
     </row>
-    <row r="112" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E112" s="16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F112" s="17">
         <v>44572</v>
@@ -9279,31 +9277,31 @@
         <v>3</v>
       </c>
       <c r="I112">
-        <v>2.077</v>
+        <v>2.7560000000000002</v>
       </c>
       <c r="J112">
-        <v>2.4820000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K112" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L112" s="15"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E113" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F113" s="17">
         <v>44572</v>
@@ -9315,17 +9313,17 @@
         <v>3</v>
       </c>
       <c r="I113">
-        <v>2.7280000000000002</v>
+        <v>2.7229999999999999</v>
       </c>
       <c r="J113">
-        <v>2.512</v>
+        <v>1.992</v>
       </c>
       <c r="K113" s="15" t="s">
         <v>53</v>
       </c>
       <c r="L113" s="15"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="15" t="s">
         <v>32</v>
       </c>
@@ -9333,13 +9331,13 @@
         <v>26</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E114" s="16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F114" s="17">
         <v>44572</v>
@@ -9351,57 +9349,63 @@
         <v>3</v>
       </c>
       <c r="I114">
+        <v>2.6590000000000003</v>
+      </c>
+      <c r="J114">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="K114" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L114" s="15"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" s="16">
+        <v>10</v>
+      </c>
+      <c r="F115" s="17">
+        <v>44572</v>
+      </c>
+      <c r="G115" s="18">
+        <v>8</v>
+      </c>
+      <c r="H115" s="16">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>2.5129999999999999</v>
       </c>
-      <c r="J114">
+      <c r="J115">
         <v>2.5680000000000001</v>
       </c>
-      <c r="K114" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L114" s="15"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="16">
-        <v>2</v>
-      </c>
-      <c r="F115" s="17">
-        <v>44516</v>
-      </c>
-      <c r="G115" s="18">
-        <v>8</v>
-      </c>
-      <c r="H115" s="16"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K115" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L115" s="15"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F116" s="7"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F117" s="7"/>
       <c r="G117" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L117">
-    <sortCondition ref="H2:H117"/>
+    <sortCondition ref="B2:B117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9411,24 +9415,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A44EB46-3D2B-48FC-A967-148EF0BA7545}">
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A123" activeCellId="1" sqref="A1:G1 A123:G123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="7" max="8" width="10.1796875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="12" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9472,7 +9476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -9508,7 +9512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9544,7 +9548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9580,7 +9584,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9613,7 +9617,7 @@
         <v>6.1532636592819321</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -9646,7 +9650,7 @@
         <v>7.0224498746397952</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -9679,7 +9683,7 @@
         <v>2.2837925720906598</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -9712,7 +9716,7 @@
         <v>10.040994478301497</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -9745,7 +9749,7 @@
         <v>5.7409744469866603E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -9787,7 +9791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -9871,7 +9875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
@@ -9913,7 +9917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
@@ -9953,7 +9957,7 @@
       </c>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
@@ -9993,7 +9997,7 @@
       </c>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
@@ -10033,7 +10037,7 @@
       </c>
       <c r="N16" s="15"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
@@ -10073,7 +10077,7 @@
       </c>
       <c r="N17" s="15"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
@@ -10113,7 +10117,7 @@
       </c>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>4</v>
       </c>
@@ -10153,7 +10157,7 @@
       </c>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>4</v>
       </c>
@@ -10193,7 +10197,7 @@
       </c>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>4</v>
       </c>
@@ -10233,7 +10237,7 @@
       </c>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>4</v>
       </c>
@@ -10273,7 +10277,7 @@
       </c>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>4</v>
       </c>
@@ -10313,7 +10317,7 @@
       </c>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>4</v>
       </c>
@@ -10353,7 +10357,7 @@
       </c>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>4</v>
       </c>
@@ -10393,7 +10397,7 @@
       </c>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>4</v>
       </c>
@@ -10433,7 +10437,7 @@
       </c>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>4</v>
       </c>
@@ -10473,7 +10477,7 @@
       </c>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
@@ -10513,7 +10517,7 @@
       </c>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>4</v>
       </c>
@@ -10553,7 +10557,7 @@
       </c>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>4</v>
       </c>
@@ -10593,7 +10597,7 @@
       </c>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>4</v>
       </c>
@@ -10633,7 +10637,7 @@
       </c>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>4</v>
       </c>
@@ -10673,7 +10677,7 @@
       </c>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>4</v>
       </c>
@@ -10713,7 +10717,7 @@
       </c>
       <c r="N33" s="15"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>32</v>
       </c>
@@ -10753,7 +10757,7 @@
       </c>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>32</v>
       </c>
@@ -10793,7 +10797,7 @@
       </c>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>32</v>
       </c>
@@ -10833,7 +10837,7 @@
       </c>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>32</v>
       </c>
@@ -10873,7 +10877,7 @@
       </c>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>32</v>
       </c>
@@ -10913,7 +10917,7 @@
       </c>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
@@ -10953,7 +10957,7 @@
       </c>
       <c r="N39" s="15"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>32</v>
       </c>
@@ -10993,7 +10997,7 @@
       </c>
       <c r="N40" s="15"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>32</v>
       </c>
@@ -11033,7 +11037,7 @@
       </c>
       <c r="N41" s="15"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>32</v>
       </c>
@@ -11073,7 +11077,7 @@
       </c>
       <c r="N42" s="15"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>32</v>
       </c>
@@ -11113,7 +11117,7 @@
       </c>
       <c r="N43" s="15"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>32</v>
       </c>
@@ -11153,7 +11157,7 @@
       </c>
       <c r="N44" s="15"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>32</v>
       </c>
@@ -11193,7 +11197,7 @@
       </c>
       <c r="N45" s="15"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>32</v>
       </c>
@@ -11233,7 +11237,7 @@
       </c>
       <c r="N46" s="15"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>32</v>
       </c>
@@ -11273,7 +11277,7 @@
       </c>
       <c r="N47" s="15"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>32</v>
       </c>
@@ -11313,7 +11317,7 @@
       </c>
       <c r="N48" s="15"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
         <v>32</v>
       </c>
@@ -11353,7 +11357,7 @@
       </c>
       <c r="N49" s="15"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>32</v>
       </c>
@@ -11393,7 +11397,7 @@
       </c>
       <c r="N50" s="15"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
         <v>4</v>
       </c>
@@ -11438,7 +11442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>4</v>
       </c>
@@ -11481,7 +11485,7 @@
       </c>
       <c r="N52" s="15"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>4</v>
       </c>
@@ -11526,7 +11530,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>4</v>
       </c>
@@ -11571,7 +11575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>4</v>
       </c>
@@ -11616,7 +11620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>4</v>
       </c>
@@ -11655,7 +11659,7 @@
       </c>
       <c r="N56" s="15"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>4</v>
       </c>
@@ -11694,7 +11698,7 @@
       </c>
       <c r="N57" s="15"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>4</v>
       </c>
@@ -11733,7 +11737,7 @@
       </c>
       <c r="N58" s="15"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
         <v>4</v>
       </c>
@@ -11776,7 +11780,7 @@
       </c>
       <c r="N59" s="15"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
         <v>4</v>
       </c>
@@ -11819,7 +11823,7 @@
       </c>
       <c r="N60" s="15"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>4</v>
       </c>
@@ -11858,7 +11862,7 @@
       </c>
       <c r="N61" s="15"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
         <v>4</v>
       </c>
@@ -11897,7 +11901,7 @@
       </c>
       <c r="N62" s="15"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
         <v>4</v>
       </c>
@@ -11936,7 +11940,7 @@
       </c>
       <c r="N63" s="15"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
         <v>4</v>
       </c>
@@ -11979,7 +11983,7 @@
       </c>
       <c r="N64" s="15"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
         <v>4</v>
       </c>
@@ -12022,7 +12026,7 @@
       </c>
       <c r="N65" s="15"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="s">
         <v>4</v>
       </c>
@@ -12061,7 +12065,7 @@
       </c>
       <c r="N66" s="15"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
         <v>4</v>
       </c>
@@ -12100,7 +12104,7 @@
       </c>
       <c r="N67" s="15"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
         <v>4</v>
       </c>
@@ -12143,7 +12147,7 @@
       </c>
       <c r="N68" s="15"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
         <v>4</v>
       </c>
@@ -12186,7 +12190,7 @@
       </c>
       <c r="N69" s="15"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>4</v>
       </c>
@@ -12225,7 +12229,7 @@
       </c>
       <c r="N70" s="15"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
         <v>4</v>
       </c>
@@ -12264,7 +12268,7 @@
       </c>
       <c r="N71" s="15"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="15" t="s">
         <v>4</v>
       </c>
@@ -12305,7 +12309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
         <v>4</v>
       </c>
@@ -12348,7 +12352,7 @@
       </c>
       <c r="N73" s="15"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
         <v>4</v>
       </c>
@@ -12391,7 +12395,7 @@
       </c>
       <c r="N74" s="15"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
         <v>4</v>
       </c>
@@ -12434,7 +12438,7 @@
       </c>
       <c r="N75" s="15"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="s">
         <v>4</v>
       </c>
@@ -12477,7 +12481,7 @@
       </c>
       <c r="N76" s="15"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
         <v>4</v>
       </c>
@@ -12520,7 +12524,7 @@
       </c>
       <c r="N77" s="15"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
         <v>4</v>
       </c>
@@ -12559,7 +12563,7 @@
       </c>
       <c r="N78" s="15"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>4</v>
       </c>
@@ -12602,7 +12606,7 @@
       </c>
       <c r="N79" s="15"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
         <v>32</v>
       </c>
@@ -12645,7 +12649,7 @@
       </c>
       <c r="N80" s="15"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
         <v>32</v>
       </c>
@@ -12688,7 +12692,7 @@
       </c>
       <c r="N81" s="15"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
         <v>32</v>
       </c>
@@ -12731,7 +12735,7 @@
       </c>
       <c r="N82" s="15"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>32</v>
       </c>
@@ -12774,7 +12778,7 @@
       </c>
       <c r="N83" s="15"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>32</v>
       </c>
@@ -12817,7 +12821,7 @@
       </c>
       <c r="N84" s="15"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
         <v>32</v>
       </c>
@@ -12860,7 +12864,7 @@
       </c>
       <c r="N85" s="15"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
         <v>32</v>
       </c>
@@ -12903,7 +12907,7 @@
       </c>
       <c r="N86" s="15"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>32</v>
       </c>
@@ -12946,7 +12950,7 @@
       </c>
       <c r="N87" s="15"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>32</v>
       </c>
@@ -12989,7 +12993,7 @@
       </c>
       <c r="N88" s="15"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>32</v>
       </c>
@@ -13032,7 +13036,7 @@
       </c>
       <c r="N89" s="15"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>32</v>
       </c>
@@ -13075,7 +13079,7 @@
       </c>
       <c r="N90" s="15"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>32</v>
       </c>
@@ -13118,7 +13122,7 @@
       </c>
       <c r="N91" s="15"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>4</v>
       </c>
@@ -13157,7 +13161,7 @@
       </c>
       <c r="N92" s="15"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>4</v>
       </c>
@@ -13196,7 +13200,7 @@
       </c>
       <c r="N93" s="15"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="s">
         <v>4</v>
       </c>
@@ -13235,7 +13239,7 @@
       </c>
       <c r="N94" s="15"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
         <v>4</v>
       </c>
@@ -13274,7 +13278,7 @@
       </c>
       <c r="N95" s="15"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="s">
         <v>4</v>
       </c>
@@ -13313,7 +13317,7 @@
       </c>
       <c r="N96" s="15"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="15" t="s">
         <v>4</v>
       </c>
@@ -13352,7 +13356,7 @@
       </c>
       <c r="N97" s="15"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
         <v>4</v>
       </c>
@@ -13391,7 +13395,7 @@
       </c>
       <c r="N98" s="15"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="15" t="s">
         <v>4</v>
       </c>
@@ -13430,7 +13434,7 @@
       </c>
       <c r="N99" s="15"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="s">
         <v>32</v>
       </c>
@@ -13469,7 +13473,7 @@
       </c>
       <c r="N100" s="15"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="s">
         <v>32</v>
       </c>
@@ -13508,7 +13512,7 @@
       </c>
       <c r="N101" s="15"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
         <v>32</v>
       </c>
@@ -13547,7 +13551,7 @@
       </c>
       <c r="N102" s="15"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="s">
         <v>32</v>
       </c>
@@ -13586,7 +13590,7 @@
       </c>
       <c r="N103" s="15"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="15" t="s">
         <v>32</v>
       </c>
@@ -13625,7 +13629,7 @@
       </c>
       <c r="N104" s="15"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
         <v>32</v>
       </c>
@@ -13664,7 +13668,7 @@
       </c>
       <c r="N105" s="15"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="s">
         <v>32</v>
       </c>
@@ -13703,7 +13707,7 @@
       </c>
       <c r="N106" s="15"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
         <v>32</v>
       </c>
@@ -13742,7 +13746,7 @@
       </c>
       <c r="N107" s="15"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="15" t="s">
         <v>32</v>
       </c>
@@ -13781,7 +13785,7 @@
       </c>
       <c r="N108" s="15"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="15" t="s">
         <v>32</v>
       </c>
@@ -13820,7 +13824,7 @@
       </c>
       <c r="N109" s="15"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="15" t="s">
         <v>32</v>
       </c>
@@ -13859,7 +13863,7 @@
       </c>
       <c r="N110" s="15"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
         <v>32</v>
       </c>
@@ -13898,7 +13902,7 @@
       </c>
       <c r="N111" s="15"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
         <v>32</v>
       </c>
@@ -13937,7 +13941,7 @@
       </c>
       <c r="N112" s="15"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="15" t="s">
         <v>32</v>
       </c>
@@ -13976,7 +13980,7 @@
       </c>
       <c r="N113" s="15"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="15" t="s">
         <v>32</v>
       </c>
@@ -14015,7 +14019,7 @@
       </c>
       <c r="N114" s="15"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="15" t="s">
         <v>32</v>
       </c>
@@ -14054,7 +14058,7 @@
       </c>
       <c r="N115" s="15"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
         <v>32</v>
       </c>
@@ -14093,7 +14097,7 @@
       </c>
       <c r="N116" s="15"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
         <v>32</v>
       </c>
@@ -14132,7 +14136,7 @@
       </c>
       <c r="N117" s="15"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="s">
         <v>32</v>
       </c>
@@ -14171,7 +14175,7 @@
       </c>
       <c r="N118" s="15"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="15" t="s">
         <v>32</v>
       </c>
@@ -14210,7 +14214,7 @@
       </c>
       <c r="N119" s="15"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="s">
         <v>32</v>
       </c>
@@ -14249,7 +14253,7 @@
       </c>
       <c r="N120" s="15"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
         <v>32</v>
       </c>
@@ -14288,7 +14292,7 @@
       </c>
       <c r="N121" s="15"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="s">
         <v>32</v>
       </c>
@@ -14327,7 +14331,7 @@
       </c>
       <c r="N122" s="15"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
         <v>4</v>
       </c>
